--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 15.02.2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
@@ -16,19 +11,16 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t>Показания на день оплаты</t>
   </si>
   <si>
@@ -38,35 +30,36 @@
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>доплатить 7,00руб</t>
-  </si>
-  <si>
-    <t>доплатить 10,50руб</t>
-  </si>
-  <si>
-    <t>доплатила</t>
-  </si>
-  <si>
-    <t>17.50</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>задолженность</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -102,13 +95,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -148,6 +134,45 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
@@ -173,9 +198,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -185,14 +207,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,10 +215,20 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,385 +595,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="5">
+        <v>43400</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="2">
+        <v>6582</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43043</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5858</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>43275</v>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="7">
+        <v>43576</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>6138</v>
+        <v>6682</v>
       </c>
       <c r="D3" s="2">
         <f>C3-C2</f>
-        <v>280</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="14">
         <f>D3*E3</f>
-        <v>1201.2</v>
+        <v>457</v>
+      </c>
+      <c r="G3" s="18">
+        <v>457</v>
+      </c>
+      <c r="H3" s="18">
+        <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>43337</v>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7">
+        <v>43626</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>6360</v>
+        <v>6832</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C3</f>
-        <v>222</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
+        <f>SUM(C4,-C3)</f>
+        <v>150</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="14">
         <f>D4*E4</f>
-        <v>999</v>
+        <v>685.5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>685.5</v>
+      </c>
+      <c r="H4" s="18">
+        <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
-        <v>43400</v>
+        <v>43646</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>6582</v>
+        <v>7082</v>
       </c>
       <c r="D5" s="2">
         <f>C5-C4</f>
-        <v>222</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="6">
+        <v>250</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F5" s="14">
         <f>D5*E5</f>
-        <v>999</v>
+        <v>1142.5</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1142.5</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1142.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43576</v>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>43700</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>6682</v>
+        <v>7132</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C5</f>
-        <v>100</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="14">
         <f>D6*E6</f>
-        <v>457</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>224.5</v>
+      </c>
+      <c r="G6" s="18">
+        <v>224.5</v>
+      </c>
+      <c r="H6" s="18">
+        <v>224.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>43576</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>43725</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7222</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C6</f>
+        <v>90</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="14">
+        <f>D7*E7</f>
+        <v>404.1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>404.1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>404.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43626</v>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>43745</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>6832</v>
+        <v>7282</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C6)</f>
-        <v>150</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
+        <f>C8-C7</f>
+        <v>60</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="14">
         <f>D8*E8</f>
-        <v>685.5</v>
+        <v>269.40000000000003</v>
+      </c>
+      <c r="G8" s="18">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="H8" s="18">
+        <v>269.39999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>43626</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
+      <c r="G9" s="18">
+        <f>SUM(G3:G8)</f>
+        <v>3183</v>
+      </c>
+      <c r="H9" s="18">
+        <f>SUM(H3:H8)</f>
+        <v>3165.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>43646</v>
-      </c>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>43646</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7082</v>
-      </c>
-      <c r="D11" s="2">
-        <f>C11-C8</f>
-        <v>250</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>1142.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43700</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7132</v>
-      </c>
-      <c r="D12" s="2">
-        <f>C12-C11</f>
-        <v>50</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>43725</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7222</v>
-      </c>
-      <c r="D13" s="2">
-        <f>C13-C12</f>
-        <v>90</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>404.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>43745</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7282</v>
-      </c>
-      <c r="D14" s="2">
-        <f>C14-C13</f>
-        <v>60</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>269.40000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18">
+        <f>SUM(H9,-G9)</f>
+        <v>-17.5</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.31527777777777777" right="0.31527777777777777" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="F11 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -958,12 +888,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 05.06.2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -54,12 +59,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -595,17 +600,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -619,7 +624,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.5" customHeight="1">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43400</v>
       </c>
@@ -661,7 +666,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43576</v>
       </c>
@@ -679,7 +684,7 @@
         <v>4.57</v>
       </c>
       <c r="F3" s="14">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F8" si="0">D3*E3</f>
         <v>457</v>
       </c>
       <c r="G3" s="18">
@@ -689,7 +694,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43626</v>
       </c>
@@ -707,7 +712,7 @@
         <v>4.57</v>
       </c>
       <c r="F4" s="14">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>685.5</v>
       </c>
       <c r="G4" s="18">
@@ -717,7 +722,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43646</v>
       </c>
@@ -735,7 +740,7 @@
         <v>4.57</v>
       </c>
       <c r="F5" s="14">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>1142.5</v>
       </c>
       <c r="G5" s="18">
@@ -745,7 +750,7 @@
         <v>1142.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43700</v>
       </c>
@@ -763,7 +768,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="14">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>224.5</v>
       </c>
       <c r="G6" s="18">
@@ -773,7 +778,7 @@
         <v>224.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43725</v>
       </c>
@@ -791,7 +796,7 @@
         <v>4.49</v>
       </c>
       <c r="F7" s="14">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>404.1</v>
       </c>
       <c r="G7" s="18">
@@ -801,7 +806,7 @@
         <v>404.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43745</v>
       </c>
@@ -819,7 +824,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="14">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>269.40000000000003</v>
       </c>
       <c r="G8" s="18">
@@ -829,36 +834,92 @@
         <v>269.39999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7432</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9-C8</f>
+        <v>150</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" ref="F9" si="1">D9*E9</f>
+        <v>673.5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>673.5</v>
+      </c>
+      <c r="H9" s="18">
+        <v>673.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7632</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10-C9</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" ref="F10" si="2">D10*E10</f>
+        <v>898</v>
+      </c>
+      <c r="G10" s="18">
+        <v>898</v>
+      </c>
+      <c r="H10" s="18">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="18">
-        <f>SUM(G3:G8)</f>
-        <v>3183</v>
-      </c>
-      <c r="H9" s="18">
-        <f>SUM(H3:H8)</f>
-        <v>3165.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="14" t="s">
+      <c r="G11" s="18">
+        <f>SUM(G3:G10)</f>
+        <v>4754.5</v>
+      </c>
+      <c r="H11" s="18">
+        <f>SUM(H3:H10)</f>
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18">
-        <f>SUM(H9,-G9)</f>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
+        <f>SUM(H11,-G11)</f>
         <v>-17.5</v>
       </c>
     </row>
@@ -871,14 +932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="F11 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -888,12 +949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 05.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -604,10 +604,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -733,7 +733,7 @@
         <v>7082</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-C4</f>
+        <f t="shared" ref="D5:D11" si="1">C5-C4</f>
         <v>250</v>
       </c>
       <c r="E5" s="6">
@@ -761,7 +761,7 @@
         <v>7132</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C5</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E6" s="6">
@@ -789,7 +789,7 @@
         <v>7222</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C6</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="E7" s="6">
@@ -817,7 +817,7 @@
         <v>7282</v>
       </c>
       <c r="D8" s="2">
-        <f>C8-C7</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E8" s="6">
@@ -845,14 +845,14 @@
         <v>7432</v>
       </c>
       <c r="D9" s="2">
-        <f>C9-C8</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="E9" s="6">
         <v>4.49</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" ref="F9" si="1">D9*E9</f>
+        <f t="shared" ref="F9" si="2">D9*E9</f>
         <v>673.5</v>
       </c>
       <c r="G9" s="18">
@@ -873,14 +873,14 @@
         <v>7632</v>
       </c>
       <c r="D10" s="2">
-        <f>C10-C9</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="E10" s="6">
         <v>4.49</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" ref="F10" si="2">D10*E10</f>
+        <f t="shared" ref="F10" si="3">D10*E10</f>
         <v>898</v>
       </c>
       <c r="G10" s="18">
@@ -891,35 +891,63 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="15" t="s">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7832</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" ref="F11" si="4">D11*E11</f>
+        <v>942</v>
+      </c>
+      <c r="G11" s="18">
+        <v>942</v>
+      </c>
+      <c r="H11" s="18">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18">
-        <f>SUM(G3:G10)</f>
-        <v>4754.5</v>
-      </c>
-      <c r="H11" s="18">
-        <f>SUM(H3:H10)</f>
-        <v>4737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="18">
+        <f>SUM(G3:G11)</f>
+        <v>5696.5</v>
+      </c>
+      <c r="H12" s="18">
+        <f>SUM(H3:H11)</f>
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18">
-        <f>SUM(H11,-G11)</f>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18">
+        <f>SUM(H12,-G12)</f>
         <v>-17.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -101,12 +101,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -234,6 +240,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +613,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,10 +696,10 @@
         <f t="shared" ref="F3:F8" si="0">D3*E3</f>
         <v>457</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="19">
         <v>457</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="19">
         <v>450</v>
       </c>
     </row>
@@ -715,10 +724,10 @@
         <f t="shared" si="0"/>
         <v>685.5</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="19">
         <v>685.5</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <v>675</v>
       </c>
     </row>
@@ -919,35 +928,63 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="15" t="s">
+      <c r="A12" s="5">
+        <v>44067</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8032</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="5">C12-C11</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" ref="F12" si="6">D12*E12</f>
+        <v>942</v>
+      </c>
+      <c r="G12" s="18">
+        <v>942</v>
+      </c>
+      <c r="H12" s="18">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G13" s="18">
         <f>SUM(G3:G11)</f>
         <v>5696.5</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="18">
         <f>SUM(H3:H11)</f>
         <v>5679</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18">
-        <f>SUM(H12,-G12)</f>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
+        <f>SUM(H13,-G13)</f>
         <v>-17.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -613,10 +613,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -956,35 +956,63 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="15" t="s">
+      <c r="A13" s="5">
+        <v>44118</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8092</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="7">C13-C12</f>
+        <v>60</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" ref="F13" si="8">D13*E13</f>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G13" s="18">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="H13" s="18">
+        <v>282.60000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="18">
-        <f>SUM(G3:G11)</f>
-        <v>5696.5</v>
-      </c>
-      <c r="H13" s="18">
-        <f>SUM(H3:H11)</f>
-        <v>5679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="18">
+        <f>SUM(G3:G13)</f>
+        <v>6921.1</v>
+      </c>
+      <c r="H14" s="18">
+        <f>SUM(H3:H13)</f>
+        <v>6903.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18">
-        <f>SUM(H13,-G13)</f>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18">
+        <f>SUM(H14,-G14)</f>
         <v>-17.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -613,10 +613,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -984,35 +984,63 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="15" t="s">
+      <c r="A14" s="5">
+        <v>44273</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8270</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="9">C14-C13</f>
+        <v>178</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" ref="F14" si="10">D14*E14</f>
+        <v>838.38</v>
+      </c>
+      <c r="G14" s="18">
+        <v>838.38</v>
+      </c>
+      <c r="H14" s="18">
+        <v>838.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G15" s="18">
         <f>SUM(G3:G13)</f>
         <v>6921.1</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H15" s="18">
         <f>SUM(H3:H13)</f>
         <v>6903.6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="14" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18">
-        <f>SUM(H14,-G14)</f>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18">
+        <f>SUM(H15,-G15)</f>
         <v>-17.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -613,10 +613,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1012,35 +1012,63 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="15" t="s">
+      <c r="A15" s="5">
+        <v>44341</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8470</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="11">C15-C14</f>
+        <v>200</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" ref="F15" si="12">D15*E15</f>
+        <v>942</v>
+      </c>
+      <c r="G15" s="18">
+        <v>942</v>
+      </c>
+      <c r="H15" s="18">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G16" s="18">
         <f>SUM(G3:G13)</f>
         <v>6921.1</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H16" s="18">
         <f>SUM(H3:H13)</f>
         <v>6903.6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="14" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18">
-        <f>SUM(H15,-G15)</f>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18">
+        <f>SUM(H16,-G16)</f>
         <v>-17.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -613,10 +613,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,35 +1040,63 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="15" t="s">
+      <c r="A16" s="5">
+        <v>44404</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8670</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16" si="13">C16-C15</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" ref="F16" si="14">D16*E16</f>
+        <v>992</v>
+      </c>
+      <c r="G16" s="18">
+        <v>992</v>
+      </c>
+      <c r="H16" s="18">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G17" s="18">
         <f>SUM(G3:G13)</f>
         <v>6921.1</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="18">
         <f>SUM(H3:H13)</f>
         <v>6903.6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="14" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18">
-        <f>SUM(H16,-G16)</f>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18">
+        <f>SUM(H17,-G17)</f>
         <v>-17.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\06.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 06.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>задолженность</t>
   </si>
 </sst>
 </file>
@@ -115,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,19 +127,6 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -179,22 +160,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,31 +188,20 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,10 +572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,13 +608,13 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -671,9 +630,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -692,14 +651,14 @@
       <c r="E3" s="8">
         <v>4.57</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F8" si="0">D3*E3</f>
         <v>457</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="14">
         <v>457</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="14">
         <v>450</v>
       </c>
     </row>
@@ -720,14 +679,14 @@
       <c r="E4" s="8">
         <v>4.57</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>685.5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <v>685.5</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="14">
         <v>675</v>
       </c>
     </row>
@@ -748,14 +707,14 @@
       <c r="E5" s="6">
         <v>4.57</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>1142.5</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="13">
         <v>1142.5</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="13">
         <v>1142.5</v>
       </c>
     </row>
@@ -776,14 +735,14 @@
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>224.5</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="13">
         <v>224.5</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="13">
         <v>224.5</v>
       </c>
     </row>
@@ -804,14 +763,14 @@
       <c r="E7" s="6">
         <v>4.49</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>404.1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="13">
         <v>404.1</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="13">
         <v>404.1</v>
       </c>
     </row>
@@ -832,14 +791,14 @@
       <c r="E8" s="6">
         <v>4.49</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>269.40000000000003</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="13">
         <v>269.39999999999998</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="13">
         <v>269.39999999999998</v>
       </c>
     </row>
@@ -860,14 +819,14 @@
       <c r="E9" s="6">
         <v>4.49</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <f t="shared" ref="F9" si="2">D9*E9</f>
         <v>673.5</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <v>673.5</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="13">
         <v>673.5</v>
       </c>
     </row>
@@ -888,14 +847,14 @@
       <c r="E10" s="6">
         <v>4.49</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <f t="shared" ref="F10" si="3">D10*E10</f>
         <v>898</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="13">
         <v>898</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="13">
         <v>898</v>
       </c>
     </row>
@@ -916,14 +875,14 @@
       <c r="E11" s="6">
         <v>4.71</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <f t="shared" ref="F11" si="4">D11*E11</f>
         <v>942</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <v>942</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="13">
         <v>942</v>
       </c>
     </row>
@@ -944,14 +903,14 @@
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <f t="shared" ref="F12" si="6">D12*E12</f>
         <v>942</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="13">
         <v>942</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="13">
         <v>942</v>
       </c>
     </row>
@@ -972,14 +931,14 @@
       <c r="E13" s="6">
         <v>4.71</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <f t="shared" ref="F13" si="8">D13*E13</f>
         <v>282.60000000000002</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="13">
         <v>282.60000000000002</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="13">
         <v>282.60000000000002</v>
       </c>
     </row>
@@ -1000,14 +959,14 @@
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <f t="shared" ref="F14" si="10">D14*E14</f>
         <v>838.38</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="13">
         <v>838.38</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="13">
         <v>838.38</v>
       </c>
     </row>
@@ -1028,14 +987,14 @@
       <c r="E15" s="6">
         <v>4.71</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <f t="shared" ref="F15" si="12">D15*E15</f>
         <v>942</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="13">
         <v>942</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="13">
         <v>942</v>
       </c>
     </row>
@@ -1056,48 +1015,99 @@
       <c r="E16" s="6">
         <v>4.96</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <f t="shared" ref="F16" si="14">D16*E16</f>
         <v>992</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="13">
         <v>992</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="13">
         <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="18">
-        <f>SUM(G3:G13)</f>
-        <v>6921.1</v>
-      </c>
-      <c r="H17" s="18">
-        <f>SUM(H3:H13)</f>
-        <v>6903.6</v>
+      <c r="A17" s="5">
+        <v>44419</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9070</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17" si="15">C17-C16</f>
+        <v>400</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17" si="16">D17*E17</f>
+        <v>1984</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1984</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1984</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18">
-        <f>SUM(H17,-G17)</f>
-        <v>-17.5</v>
+      <c r="A18" s="5">
+        <v>44428</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9270</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18" si="17">C18-C17</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18" si="18">D18*E18</f>
+        <v>992</v>
+      </c>
+      <c r="G18" s="13">
+        <v>992</v>
+      </c>
+      <c r="H18" s="13">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44452</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9470</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="19">C19-C18</f>
+        <v>200</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19" si="20">D19*E19</f>
+        <v>992</v>
+      </c>
+      <c r="G19" s="13">
+        <v>992</v>
+      </c>
+      <c r="H19" s="13">
+        <v>992</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/62ee.xlsx
+++ b/sputnik/personal/ee/62ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\06.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 06.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -572,10 +572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1107,34 @@
         <v>992</v>
       </c>
       <c r="H19" s="13">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>44526</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9670</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20" si="21">C20-C19</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20" si="22">D20*E20</f>
+        <v>992</v>
+      </c>
+      <c r="G20" s="13">
+        <v>992</v>
+      </c>
+      <c r="H20" s="13">
         <v>992</v>
       </c>
     </row>
